--- a/Data/EC/NIT-9016410370.xlsx
+++ b/Data/EC/NIT-9016410370.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C781EE0-3B7B-47A1-8B75-214BCC9AEF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22714E47-B581-42C3-9E8D-3A0243026B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{56F23100-177D-40AC-810A-6F94EC9BAD74}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{05D60B22-E245-4C4C-952E-9B53957C75F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,24 +65,54 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1049828873</t>
+  </si>
+  <si>
+    <t>LUIS GUILLERMO CANTILLO FLOREZ</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>1143329466</t>
+  </si>
+  <si>
+    <t>HERIBERTO DE JESUS MARQUEZ SOLIS</t>
+  </si>
+  <si>
     <t>23139700</t>
   </si>
   <si>
     <t>YESEIRA SUAREZ BATISTA</t>
   </si>
   <si>
+    <t>2311</t>
+  </si>
+  <si>
     <t>2308</t>
   </si>
   <si>
-    <t>1049828873</t>
-  </si>
-  <si>
-    <t>LUIS GUILLERMO CANTILLO FLOREZ</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
     <t>1051889025</t>
   </si>
   <si>
@@ -90,36 +120,6 @@
   </si>
   <si>
     <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>1143329466</t>
-  </si>
-  <si>
-    <t>HERIBERTO DE JESUS MARQUEZ SOLIS</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -533,7 +533,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C575AA93-163E-9573-8880-856203CF2957}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCF66F39-AE09-0AA2-0B9B-3E1495F6046A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -884,7 +884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7262ABE-F370-4E12-91CA-6B3F1895FC0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBA9457-A2BE-4B30-954B-CCCFC5D5194F}">
   <dimension ref="B2:J54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1062,7 +1062,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>46400</v>
+        <v>18560</v>
       </c>
       <c r="G16" s="18">
         <v>1160000</v>
@@ -1076,13 +1076,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>46400</v>
@@ -1099,13 +1099,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
         <v>46400</v>
@@ -1128,7 +1128,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>46400</v>
@@ -1145,13 +1145,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F20" s="18">
         <v>46400</v>
@@ -1168,13 +1168,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>46400</v>
@@ -1191,13 +1191,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>46400</v>
@@ -1220,7 +1220,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>46400</v>
@@ -1237,16 +1237,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F24" s="18">
-        <v>46400</v>
+        <v>18560</v>
       </c>
       <c r="G24" s="18">
         <v>1160000</v>
@@ -1260,13 +1260,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F25" s="18">
         <v>46400</v>
@@ -1289,7 +1289,7 @@
         <v>20</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F26" s="18">
         <v>46400</v>
@@ -1306,13 +1306,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F27" s="18">
         <v>46400</v>
@@ -1329,13 +1329,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="F28" s="18">
         <v>46400</v>
@@ -1352,13 +1352,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F29" s="18">
         <v>46400</v>
@@ -1375,13 +1375,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F30" s="18">
         <v>46400</v>
@@ -1398,16 +1398,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F31" s="18">
-        <v>46400</v>
+        <v>18560</v>
       </c>
       <c r="G31" s="18">
         <v>1160000</v>
@@ -1421,13 +1421,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F32" s="18">
         <v>46400</v>
@@ -1444,13 +1444,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D33" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="F33" s="18">
         <v>46400</v>
@@ -1467,13 +1467,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F34" s="18">
         <v>46400</v>
@@ -1490,13 +1490,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="F35" s="18">
         <v>46400</v>
@@ -1513,13 +1513,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F36" s="18">
         <v>46400</v>
@@ -1536,13 +1536,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F37" s="18">
         <v>46400</v>
@@ -1559,13 +1559,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F38" s="18">
         <v>46400</v>
@@ -1582,13 +1582,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F39" s="18">
         <v>46400</v>
@@ -1605,16 +1605,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F40" s="18">
-        <v>46400</v>
+        <v>18560</v>
       </c>
       <c r="G40" s="18">
         <v>1160000</v>
@@ -1628,13 +1628,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="F41" s="18">
         <v>46400</v>
@@ -1651,13 +1651,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F42" s="18">
         <v>46400</v>
@@ -1674,13 +1674,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F43" s="18">
         <v>46400</v>
@@ -1697,13 +1697,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="F44" s="18">
         <v>46400</v>
@@ -1720,16 +1720,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D45" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E45" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="F45" s="18">
-        <v>18560</v>
+        <v>46400</v>
       </c>
       <c r="G45" s="18">
         <v>1160000</v>
@@ -1743,16 +1743,16 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F46" s="18">
-        <v>18560</v>
+        <v>46400</v>
       </c>
       <c r="G46" s="18">
         <v>1160000</v>
@@ -1766,16 +1766,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F47" s="18">
-        <v>18560</v>
+        <v>46400</v>
       </c>
       <c r="G47" s="18">
         <v>1160000</v>
@@ -1789,16 +1789,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E48" s="22" t="s">
         <v>27</v>
       </c>
       <c r="F48" s="24">
-        <v>18560</v>
+        <v>46400</v>
       </c>
       <c r="G48" s="24">
         <v>1160000</v>

--- a/Data/EC/NIT-9016410370.xlsx
+++ b/Data/EC/NIT-9016410370.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22714E47-B581-42C3-9E8D-3A0243026B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D31C085-D11F-452B-A06E-FA822E74782B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{05D60B22-E245-4C4C-952E-9B53957C75F7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{947E1BA4-F233-4929-9D3C-0D185F97E207}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,61 +65,61 @@
     <t>CC</t>
   </si>
   <si>
+    <t>23139700</t>
+  </si>
+  <si>
+    <t>YESEIRA SUAREZ BATISTA</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
     <t>1049828873</t>
   </si>
   <si>
     <t>LUIS GUILLERMO CANTILLO FLOREZ</t>
   </si>
   <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>1051889025</t>
+  </si>
+  <si>
+    <t>MARILUZ CONEO JIMENEZ</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>1143329466</t>
+  </si>
+  <si>
+    <t>HERIBERTO DE JESUS MARQUEZ SOLIS</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
     <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>1143329466</t>
-  </si>
-  <si>
-    <t>HERIBERTO DE JESUS MARQUEZ SOLIS</t>
-  </si>
-  <si>
-    <t>23139700</t>
-  </si>
-  <si>
-    <t>YESEIRA SUAREZ BATISTA</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>1051889025</t>
-  </si>
-  <si>
-    <t>MARILUZ CONEO JIMENEZ</t>
-  </si>
-  <si>
-    <t>2310</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -218,7 +218,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -231,9 +233,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -433,23 +433,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -477,10 +477,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -533,7 +533,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCF66F39-AE09-0AA2-0B9B-3E1495F6046A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D81058CE-5D96-E441-1549-739B34F4F122}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -884,7 +884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBA9457-A2BE-4B30-954B-CCCFC5D5194F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA713F84-D2A8-4725-80B0-D4290A462426}">
   <dimension ref="B2:J54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1062,7 +1062,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>18560</v>
+        <v>46400</v>
       </c>
       <c r="G16" s="18">
         <v>1160000</v>
@@ -1076,13 +1076,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>46400</v>
@@ -1099,13 +1099,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F18" s="18">
         <v>46400</v>
@@ -1128,7 +1128,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F19" s="18">
         <v>46400</v>
@@ -1145,13 +1145,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
         <v>46400</v>
@@ -1168,13 +1168,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F21" s="18">
         <v>46400</v>
@@ -1191,13 +1191,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>46400</v>
@@ -1220,7 +1220,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F23" s="18">
         <v>46400</v>
@@ -1237,16 +1237,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F24" s="18">
-        <v>18560</v>
+        <v>46400</v>
       </c>
       <c r="G24" s="18">
         <v>1160000</v>
@@ -1260,13 +1260,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>46400</v>
@@ -1283,13 +1283,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F26" s="18">
         <v>46400</v>
@@ -1306,13 +1306,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>46400</v>
@@ -1329,13 +1329,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F28" s="18">
         <v>46400</v>
@@ -1352,13 +1352,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F29" s="18">
         <v>46400</v>
@@ -1375,13 +1375,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F30" s="18">
         <v>46400</v>
@@ -1398,16 +1398,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F31" s="18">
-        <v>18560</v>
+        <v>46400</v>
       </c>
       <c r="G31" s="18">
         <v>1160000</v>
@@ -1421,13 +1421,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F32" s="18">
         <v>46400</v>
@@ -1444,13 +1444,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F33" s="18">
         <v>46400</v>
@@ -1467,13 +1467,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="17" t="s">
-        <v>22</v>
-      </c>
       <c r="E34" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F34" s="18">
         <v>46400</v>
@@ -1490,13 +1490,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F35" s="18">
         <v>46400</v>
@@ -1513,13 +1513,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F36" s="18">
         <v>46400</v>
@@ -1536,13 +1536,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F37" s="18">
         <v>46400</v>
@@ -1559,13 +1559,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="17" t="s">
-        <v>22</v>
-      </c>
       <c r="E38" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F38" s="18">
         <v>46400</v>
@@ -1582,13 +1582,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F39" s="18">
         <v>46400</v>
@@ -1605,16 +1605,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F40" s="18">
-        <v>18560</v>
+        <v>46400</v>
       </c>
       <c r="G40" s="18">
         <v>1160000</v>
@@ -1628,13 +1628,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F41" s="18">
         <v>46400</v>
@@ -1651,13 +1651,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D42" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F42" s="18">
         <v>46400</v>
@@ -1674,13 +1674,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F43" s="18">
         <v>46400</v>
@@ -1697,13 +1697,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D44" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F44" s="18">
         <v>46400</v>
@@ -1720,16 +1720,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F45" s="18">
-        <v>46400</v>
+        <v>18560</v>
       </c>
       <c r="G45" s="18">
         <v>1160000</v>
@@ -1743,16 +1743,16 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F46" s="18">
-        <v>46400</v>
+        <v>18560</v>
       </c>
       <c r="G46" s="18">
         <v>1160000</v>
@@ -1766,16 +1766,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F47" s="18">
-        <v>46400</v>
+        <v>18560</v>
       </c>
       <c r="G47" s="18">
         <v>1160000</v>
@@ -1789,16 +1789,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E48" s="22" t="s">
         <v>27</v>
       </c>
       <c r="F48" s="24">
-        <v>46400</v>
+        <v>18560</v>
       </c>
       <c r="G48" s="24">
         <v>1160000</v>
